--- a/GATEWAY/A1#111ARBITEKXXXX/Arbitek/XM-Lab/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARBITEKXXXX/Arbitek/XM-Lab/2.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sviluppo\azospvr\fser2.0\accreditamento\GATEWAY\A1#111ARBITEKXXXX\Arbitek\XM-Lab\2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sviluppo\azospvr\fser2.0\accreditamento\github\it-fse-accreditamento\GATEWAY\A1#111ARBITEKXXXX\Arbitek\XM-Lab\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0AB71F-1F0B-424A-B1E0-F787CA2CE708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ADA277-EC42-4380-A4F6-11C9211017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="197">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1268,6 +1268,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,15 +1298,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3758,10 +3758,10 @@
   <dimension ref="A1:T246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3800,12 +3800,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -3823,14 +3823,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -3848,12 +3848,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3872,12 +3872,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3895,8 +3895,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4258,7 +4258,9 @@
         <v>161</v>
       </c>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P15" s="33" t="s">
         <v>162</v>
       </c>
@@ -4308,7 +4310,9 @@
         <v>161</v>
       </c>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="O16" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P16" s="33" t="s">
         <v>162</v>
       </c>
@@ -4341,7 +4345,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="34" t="s">
         <v>71</v>
       </c>
       <c r="K17" s="25"/>
@@ -4350,7 +4354,9 @@
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="25" t="s">
+        <v>146</v>
+      </c>
       <c r="P17" s="33" t="s">
         <v>165</v>
       </c>
@@ -4402,7 +4408,9 @@
         <v>161</v>
       </c>
       <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P18" s="33" t="s">
         <v>162</v>
       </c>
@@ -4452,7 +4460,9 @@
         <v>161</v>
       </c>
       <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P19" s="33" t="s">
         <v>162</v>
       </c>
@@ -4482,7 +4492,7 @@
       <c r="F20" s="23">
         <v>45027</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="35" t="s">
         <v>173</v>
       </c>
       <c r="H20" s="24" t="s">
@@ -4502,7 +4512,9 @@
         <v>161</v>
       </c>
       <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="O20" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P20" s="33" t="s">
         <v>162</v>
       </c>
@@ -4530,7 +4542,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="23"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="33" t="s">
@@ -4570,7 +4582,7 @@
       <c r="F22" s="23">
         <v>45027</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="35" t="s">
         <v>176</v>
       </c>
       <c r="H22" s="24" t="s">
@@ -4590,7 +4602,9 @@
         <v>161</v>
       </c>
       <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="O22" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P22" s="33" t="s">
         <v>162</v>
       </c>
@@ -4620,7 +4634,7 @@
       <c r="F23" s="23">
         <v>45027</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="35" t="s">
         <v>179</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -4640,7 +4654,9 @@
         <v>161</v>
       </c>
       <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P23" s="33" t="s">
         <v>162</v>
       </c>
@@ -4670,10 +4686,10 @@
       <c r="F24" s="23">
         <v>45027</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="36" t="s">
         <v>182</v>
       </c>
       <c r="I24" s="24" t="s">
@@ -4690,7 +4706,9 @@
         <v>161</v>
       </c>
       <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="O24" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P24" s="33" t="s">
         <v>162</v>
       </c>
@@ -4720,7 +4738,7 @@
       <c r="F25" s="23">
         <v>45027</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="35" t="s">
         <v>186</v>
       </c>
       <c r="H25" s="24" t="s">
@@ -4740,7 +4758,9 @@
         <v>161</v>
       </c>
       <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="O25" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P25" s="33" t="s">
         <v>162</v>
       </c>
@@ -4790,7 +4810,9 @@
         <v>161</v>
       </c>
       <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="O26" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P26" s="33" t="s">
         <v>162</v>
       </c>
@@ -4840,7 +4862,9 @@
         <v>161</v>
       </c>
       <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P27" s="33" t="s">
         <v>162</v>
       </c>
@@ -4890,7 +4914,9 @@
         <v>161</v>
       </c>
       <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="O28" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P28" s="33" t="s">
         <v>162</v>
       </c>

--- a/GATEWAY/A1#111ARBITEKXXXX/Arbitek/XM-Lab/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARBITEKXXXX/Arbitek/XM-Lab/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sviluppo\azospvr\fser2.0\accreditamento\github\it-fse-accreditamento\GATEWAY\A1#111ARBITEKXXXX\Arbitek\XM-Lab\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ADA277-EC42-4380-A4F6-11C9211017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9387D1-F824-4C21-9DBE-A1369BE997CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="198">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -756,9 +756,6 @@
     <t>f45614a925715f31</t>
   </si>
   <si>
-    <t>La procedura viene ritentata alla successiva schedulazione</t>
-  </si>
-  <si>
     <t>2023-04-11T10:05:25Z</t>
   </si>
   <si>
@@ -850,6 +847,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.50912.4.4.1.d6cc9a06ccb80f7ad04d4983bc37257f90e8ddc297a591258cb3fbd34c85814d.b086a4b332^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>La procedura viene ritentata alla successiva schedulazione. L'operazione è automatica senza intervento dell'utente</t>
+  </si>
+  <si>
+    <t>La procedura viene monitorata ed eventuali errori sono gestiti dal personale tecnico, che provvede a correggere la configurrazione o segnalare al personale clinico la non conformità del confidendialitycode per la correzione, a seconda dei cas (se dipendente da configurazione o se da modalità di refertazione)</t>
   </si>
 </sst>
 </file>
@@ -3758,10 +3761,10 @@
   <dimension ref="A1:T246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4323,7 +4326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="45.75" thickBot="1">
+    <row r="17" spans="1:20" ht="75.75" thickBot="1">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -4352,13 +4355,15 @@
       <c r="L17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="25"/>
+      <c r="M17" s="33" t="s">
+        <v>161</v>
+      </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25" t="s">
         <v>146</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
@@ -4389,13 +4394,13 @@
         <v>45027</v>
       </c>
       <c r="G18" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="I18" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>71</v>
@@ -4441,13 +4446,13 @@
         <v>45027</v>
       </c>
       <c r="G19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>71</v>
@@ -4473,7 +4478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="120.75" thickBot="1">
+    <row r="20" spans="1:20" ht="195.75" thickBot="1">
       <c r="A20" s="20">
         <v>54</v>
       </c>
@@ -4493,13 +4498,13 @@
         <v>45027</v>
       </c>
       <c r="G20" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>71</v>
@@ -4516,7 +4521,7 @@
         <v>71</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -4549,7 +4554,7 @@
         <v>146</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -4583,13 +4588,13 @@
         <v>45027</v>
       </c>
       <c r="G22" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>177</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>178</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>71</v>
@@ -4635,13 +4640,13 @@
         <v>45027</v>
       </c>
       <c r="G23" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>71</v>
@@ -4687,13 +4692,13 @@
         <v>45027</v>
       </c>
       <c r="G24" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>184</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>71</v>
@@ -4739,13 +4744,13 @@
         <v>45027</v>
       </c>
       <c r="G25" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>71</v>
@@ -4791,13 +4796,13 @@
         <v>45027</v>
       </c>
       <c r="G26" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="I26" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>71</v>
@@ -4843,13 +4848,13 @@
         <v>45027</v>
       </c>
       <c r="G27" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>193</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>71</v>
@@ -4895,13 +4900,13 @@
         <v>45027</v>
       </c>
       <c r="G28" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>71</v>

--- a/GATEWAY/A1#111ARBITEKXXXX/Arbitek/XM-Lab/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARBITEKXXXX/Arbitek/XM-Lab/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sviluppo\azospvr\fser2.0\accreditamento\github\it-fse-accreditamento\GATEWAY\A1#111ARBITEKXXXX\Arbitek\XM-Lab\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9387D1-F824-4C21-9DBE-A1369BE997CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ADA277-EC42-4380-A4F6-11C9211017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="197">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -756,6 +756,9 @@
     <t>f45614a925715f31</t>
   </si>
   <si>
+    <t>La procedura viene ritentata alla successiva schedulazione</t>
+  </si>
+  <si>
     <t>2023-04-11T10:05:25Z</t>
   </si>
   <si>
@@ -847,12 +850,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.50912.4.4.1.d6cc9a06ccb80f7ad04d4983bc37257f90e8ddc297a591258cb3fbd34c85814d.b086a4b332^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>La procedura viene ritentata alla successiva schedulazione. L'operazione è automatica senza intervento dell'utente</t>
-  </si>
-  <si>
-    <t>La procedura viene monitorata ed eventuali errori sono gestiti dal personale tecnico, che provvede a correggere la configurrazione o segnalare al personale clinico la non conformità del confidendialitycode per la correzione, a seconda dei cas (se dipendente da configurazione o se da modalità di refertazione)</t>
   </si>
 </sst>
 </file>
@@ -3761,10 +3758,10 @@
   <dimension ref="A1:T246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4326,7 +4323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="75.75" thickBot="1">
+    <row r="17" spans="1:20" ht="45.75" thickBot="1">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -4355,15 +4352,13 @@
       <c r="L17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25" t="s">
         <v>146</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
@@ -4394,13 +4389,13 @@
         <v>45027</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>71</v>
@@ -4446,13 +4441,13 @@
         <v>45027</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>71</v>
@@ -4478,7 +4473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="195.75" thickBot="1">
+    <row r="20" spans="1:20" ht="120.75" thickBot="1">
       <c r="A20" s="20">
         <v>54</v>
       </c>
@@ -4498,13 +4493,13 @@
         <v>45027</v>
       </c>
       <c r="G20" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>171</v>
-      </c>
       <c r="I20" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>71</v>
@@ -4521,7 +4516,7 @@
         <v>71</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -4554,7 +4549,7 @@
         <v>146</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -4588,13 +4583,13 @@
         <v>45027</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>71</v>
@@ -4640,13 +4635,13 @@
         <v>45027</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>71</v>
@@ -4692,13 +4687,13 @@
         <v>45027</v>
       </c>
       <c r="G24" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="I24" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>71</v>
@@ -4744,13 +4739,13 @@
         <v>45027</v>
       </c>
       <c r="G25" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="I25" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>71</v>
@@ -4796,13 +4791,13 @@
         <v>45027</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>71</v>
@@ -4848,13 +4843,13 @@
         <v>45027</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>71</v>
@@ -4900,13 +4895,13 @@
         <v>45027</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>71</v>
